--- a/employees.xlsx
+++ b/employees.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Employee ID</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Tafadzwa Maupa</t>
+  </si>
+  <si>
+    <t>dylanmupa@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,9 @@
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="3">
         <v>12000.0</v>
       </c>
